--- a/stroopdata.xlsx
+++ b/stroopdata.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
-    <sheet name="T-test" sheetId="3" r:id="rId1"/>
-    <sheet name="stroopdata" sheetId="1" r:id="rId2"/>
+    <sheet name="stroopdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>Congruent</t>
   </si>
@@ -23,22 +22,22 @@
     <t>Incongruent</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Variable 1</t>
-  </si>
-  <si>
-    <t>Variable 2</t>
+    <t>t-Test: Two-Sample Assuming Equal Variances</t>
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
   </si>
   <si>
     <t>Variance</t>
   </si>
   <si>
     <t>Observations</t>
+  </si>
+  <si>
+    <t>Pooled Variance</t>
   </si>
   <si>
     <t>Hypothesized Mean Difference</t>
@@ -55,168 +54,168 @@
   <si>
     <t>t Critical one-tail</t>
   </si>
-  <si>
-    <t>P(T&lt;=t) two-tail</t>
-  </si>
-  <si>
-    <t>t Critical two-tail</t>
-  </si>
-  <si>
-    <t>t-Test: Two-Sample Assuming Equal Variances</t>
-  </si>
-  <si>
-    <t>Pooled Variance</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -229,179 +228,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -412,9 +424,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -423,55 +437,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +458,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -506,6 +487,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -516,143 +539,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-SG"/>
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Congruent</c:v>
+            <c:strRef>
+              <c:f>"Congruent"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Congruent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>stroopdata!$A$2:$A$25</c:f>
@@ -660,16 +713,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>12.079000000000001</c:v>
+                  <c:v>12.079</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.791</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5640000000000001</c:v>
+                  <c:v>9.564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6300000000000008</c:v>
+                  <c:v>8.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14.669</c:v>
@@ -681,16 +734,16 @@
                   <c:v>14.692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9870000000000001</c:v>
+                  <c:v>8.987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.4009999999999998</c:v>
+                  <c:v>9.401</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>14.48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.327999999999999</c:v>
+                  <c:v>22.328</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>15.298</c:v>
@@ -699,7 +752,7 @@
                   <c:v>15.073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.928999999999998</c:v>
+                  <c:v>16.929</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>18.2</c:v>
@@ -708,28 +761,28 @@
                   <c:v>12.13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.495000000000001</c:v>
+                  <c:v>18.495</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.638999999999999</c:v>
+                  <c:v>10.639</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.343999999999999</c:v>
+                  <c:v>11.344</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>12.369</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.944000000000001</c:v>
+                  <c:v>12.944</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.233000000000001</c:v>
+                  <c:v>14.233</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>19.71</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.004000000000001</c:v>
+                  <c:v>16.004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,8 +792,20 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Incongruent</c:v>
+            <c:strRef>
+              <c:f>"Incongruent"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incongruent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>stroopdata!$B$2:$B$25</c:f>
@@ -748,28 +813,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>19.277999999999999</c:v>
+                  <c:v>19.278</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.213999999999999</c:v>
+                  <c:v>21.214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.686999999999999</c:v>
+                  <c:v>15.687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.803000000000001</c:v>
+                  <c:v>22.803</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20.878</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.571999999999999</c:v>
+                  <c:v>24.572</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.393999999999998</c:v>
+                  <c:v>17.394</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>20.762</c:v>
@@ -778,37 +843,37 @@
                   <c:v>26.282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.524000000000001</c:v>
+                  <c:v>24.524</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.643999999999998</c:v>
+                  <c:v>18.644</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.510000000000002</c:v>
+                  <c:v>17.51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.329999999999998</c:v>
+                  <c:v>20.33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.255000000000003</c:v>
+                  <c:v>35.255</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.158000000000001</c:v>
+                  <c:v>22.158</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.138999999999999</c:v>
+                  <c:v>25.139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.428999999999998</c:v>
+                  <c:v>20.429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.425000000000001</c:v>
+                  <c:v>17.425</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.287999999999997</c:v>
+                  <c:v>34.288</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.893999999999998</c:v>
+                  <c:v>23.894</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>17.96</c:v>
@@ -823,6 +888,15 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="47833472"/>
         <c:axId val="47835008"/>
       </c:barChart>
@@ -831,23 +905,62 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="47835008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="47835008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="47833472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -856,9 +969,37 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -869,13 +1010,25 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-SG"/>
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -890,6 +1043,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>stroopdata!$D$4:$D$7</c:f>
@@ -917,13 +1074,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.051125000000001</c:v>
+                  <c:v>14.051125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.559357957645187</c:v>
+                  <c:v>3.5593579576452</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.669029070652117</c:v>
+                  <c:v>12.6690290706521</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>24</c:v>
@@ -946,6 +1103,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>stroopdata!$D$4:$D$7</c:f>
@@ -973,13 +1134,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>22.015916666666669</c:v>
+                  <c:v>22.0159166666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7970571224691367</c:v>
+                  <c:v>4.79705712246914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.011757036231874</c:v>
+                  <c:v>23.0117570362319</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>24</c:v>
@@ -988,6 +1149,15 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="154950656"/>
         <c:axId val="154952448"/>
       </c:barChart>
@@ -996,23 +1166,62 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="154952448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="154952448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="154950656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1021,9 +1230,37 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1033,7 +1270,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1047,14 +1284,14 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="1851660" y="3116580"/>
+        <a:ext cx="7461250" cy="2628900"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1077,14 +1314,14 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6312535" y="394335"/>
+        <a:ext cx="4625340" cy="2626995"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1381,172 +1618,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>14.051125000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>22.015916666666669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <f>STDEV(stroopdata!A2:A225)</f>
-        <v>3.559357957645187</v>
-      </c>
-      <c r="C5">
-        <f>STDEV(stroopdata!B2:B25)</f>
-        <v>4.7970571224691367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12.669029070652117</v>
-      </c>
-      <c r="C6" s="1">
-        <v>23.011757036231874</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1">
-        <v>17.840393053441996</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-6.5322505539032356</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2.2974744805896078E-8</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1.6786604140340633</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4.5949489611792155E-8</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2.0128955673215021</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="20.287037037037" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1554,15 +1641,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:2">
       <c r="A2">
-        <v>12.079000000000001</v>
+        <v>12.079</v>
       </c>
       <c r="B2">
-        <v>19.277999999999999</v>
+        <v>19.278</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1572,48 +1659,48 @@
       <c r="B3">
         <v>18.741</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>9.5640000000000001</v>
+        <v>9.564</v>
       </c>
       <c r="B4">
-        <v>21.213999999999999</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>14.051125000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>22.015916666666669</v>
+        <v>21.214</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>14.051125</v>
+      </c>
+      <c r="F4" s="2">
+        <v>22.0159166666667</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>8.6300000000000008</v>
+        <v>8.63</v>
       </c>
       <c r="B5">
-        <v>15.686999999999999</v>
+        <v>15.687</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f>STDEV(A2:A25)</f>
-        <v>3.559357957645187</v>
+        <v>3.5593579576452</v>
       </c>
       <c r="F5">
         <f>STDEV(B2:B25)</f>
-        <v>4.7970571224691367</v>
+        <v>4.79705712246914</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1621,16 +1708,16 @@
         <v>14.669</v>
       </c>
       <c r="B6">
-        <v>22.803000000000001</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>12.669029070652117</v>
-      </c>
-      <c r="F6" s="1">
-        <v>23.011757036231874</v>
+        <v>22.803</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12.6690290706521</v>
+      </c>
+      <c r="F6" s="2">
+        <v>23.0117570362319</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1640,13 +1727,13 @@
       <c r="B7">
         <v>20.878</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
         <v>24</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>24</v>
       </c>
     </row>
@@ -1655,45 +1742,45 @@
         <v>14.692</v>
       </c>
       <c r="B8">
-        <v>24.571999999999999</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1">
-        <v>17.840393053441996</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>24.572</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>17.840393053442</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>8.9870000000000001</v>
+        <v>8.987</v>
       </c>
       <c r="B9">
-        <v>17.393999999999998</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>17.394</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>9.4009999999999998</v>
+        <v>9.401</v>
       </c>
       <c r="B10">
         <v>20.762</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>46</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
@@ -1702,80 +1789,66 @@
       <c r="B11">
         <v>26.282</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1">
-        <v>-6.5322505539032356</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="E11" s="2">
+        <v>-6.53225055390324</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>22.327999999999999</v>
+        <v>22.328</v>
       </c>
       <c r="B12">
-        <v>24.524000000000001</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>24.524</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1">
-        <v>2.2974744805896078E-8</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="E12" s="2">
+        <v>2.29747448058961e-8</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
         <v>15.298</v>
       </c>
       <c r="B13">
-        <v>18.643999999999998</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>18.644</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1">
-        <v>1.6786604140340633</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="2">
+        <v>1.67866041403406</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>15.073</v>
       </c>
       <c r="B14">
-        <v>17.510000000000002</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4.5949489611792155E-8</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+        <v>17.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>16.928999999999998</v>
+        <v>16.929</v>
       </c>
       <c r="B15">
-        <v>20.329999999999998</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.0128955673215021</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
+        <v>20.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>18.2</v>
       </c>
       <c r="B16">
-        <v>35.255000000000003</v>
+        <v>35.255</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1783,31 +1856,31 @@
         <v>12.13</v>
       </c>
       <c r="B17">
-        <v>22.158000000000001</v>
+        <v>22.158</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>18.495000000000001</v>
+        <v>18.495</v>
       </c>
       <c r="B18">
-        <v>25.138999999999999</v>
+        <v>25.139</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>10.638999999999999</v>
+        <v>10.639</v>
       </c>
       <c r="B19">
-        <v>20.428999999999998</v>
+        <v>20.429</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>11.343999999999999</v>
+        <v>11.344</v>
       </c>
       <c r="B20">
-        <v>17.425000000000001</v>
+        <v>17.425</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1815,20 +1888,20 @@
         <v>12.369</v>
       </c>
       <c r="B21">
-        <v>34.287999999999997</v>
+        <v>34.288</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>12.944000000000001</v>
+        <v>12.944</v>
       </c>
       <c r="B22">
-        <v>23.893999999999998</v>
+        <v>23.894</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>14.233000000000001</v>
+        <v>14.233</v>
       </c>
       <c r="B23">
         <v>17.96</v>
@@ -1844,14 +1917,15 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>16.004000000000001</v>
+        <v>16.004</v>
       </c>
       <c r="B25">
         <v>21.157</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>